--- a/english/net/developer-guide/charts/how-to-create-combo-chart/out.xlsx
+++ b/english/net/developer-guide/charts/how-to-create-combo-chart/out.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ChartCompareTool\NetStandard31\ForumTest\bin\Debug\net6.0\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Docs\Aspose.Cells-Doc-md\english\net\developer-guide\charts\how-to-create-combo-chart\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="0"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12696" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId3"/>
@@ -25,71 +25,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
-  <si>
-    <t>Months</t>
-  </si>
-  <si>
-    <t>Price 2020</t>
-  </si>
-  <si>
-    <t>Price 2021</t>
-  </si>
-  <si>
-    <t>Price 2022</t>
-  </si>
-  <si>
-    <t>Jan</t>
-  </si>
-  <si>
-    <t>Feb</t>
-  </si>
-  <si>
-    <t>Mar</t>
-  </si>
-  <si>
-    <t>Apr</t>
-  </si>
-  <si>
-    <t>May</t>
-  </si>
-  <si>
-    <t>Jun</t>
-  </si>
-  <si>
-    <t>Jul</t>
-  </si>
-  <si>
-    <t>Aug</t>
-  </si>
-  <si>
-    <t>Sep</t>
-  </si>
-  <si>
-    <t>Oct</t>
-  </si>
-  <si>
-    <t>Nov</t>
-  </si>
-  <si>
-    <t>Total Revenue</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="0" uniqueCount="0"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="##\$#,##0,,&quot;M&quot;"/>
-    <numFmt numFmtId="177" formatCode="\$#,##0.00"/>
-    <numFmt numFmtId="178" formatCode="\$#,##0.0"/>
-    <numFmt numFmtId="179" formatCode="\$#,##0"/>
-  </numFmts>
-  <fonts count="5">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -99,47 +44,16 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF963634"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -147,20 +61,6 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF808080"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF808080"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF808080"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF808080"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -187,23 +87,9 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -326,17 +212,52 @@
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$1:$B$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$1:$C$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$1:$D$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="12289376"/>
+        <c:axId val="43495525"/>
+      </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-            </c:strRef>
-          </c:tx>
+          <c:idx val="0"/>
+          <c:order val="0"/>
           <c:spPr>
             <a:ln>
               <a:solidFill>
@@ -347,135 +268,20 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
-          <c:cat>
-            <c:strRef>
-              <c:f>Sheet1!$A$2:$A$12</c:f>
-              <c:strCache/>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$12</c:f>
+              <c:f>Sheet1!$A$1:$A$3</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
         </c:ser>
         <c:marker val="1"/>
-        <c:axId val="33476626"/>
-        <c:axId val="32854180"/>
-      </c:lineChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFC0CB"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$12</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="dash"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="FFA500"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$12</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="square"/>
-            <c:size val="15"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="ADD8E6"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:srgbClr val="000000"/>
-                </a:solidFill>
-              </a:ln>
-            </c:spPr>
-          </c:marker>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$12</c:f>
-              <c:numCache/>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:hiLowLines/>
-        <c:marker val="1"/>
-        <c:axId val="27252167"/>
-        <c:axId val="43942917"/>
+        <c:axId val="12289376"/>
+        <c:axId val="43495525"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="33476626"/>
+        <c:axId val="12289376"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -485,13 +291,13 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="32854180"/>
+        <c:crossAx val="43495525"/>
         <c:crosses val="autoZero"/>
         <c:lblOffset val="100"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="32854180"/>
+        <c:axId val="43495525"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,38 +312,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="33476626"/>
+        <c:crossAx val="12289376"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="27252167"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="43942917"/>
-        <c:crosses val="max"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="43942917"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="27252167"/>
-        <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
@@ -567,13 +343,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>15</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame>
@@ -581,15 +357,15 @@
         <xdr:cNvPr id="1" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{d56ecd0a-3d81-485f-b08f-9eb6f0a62644}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ab106112-b7c8-421b-8a18-8c99c0442ebb}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
-        <a:off x="0" y="2571750"/>
-        <a:ext cx="9867900" cy="3257550"/>
+        <a:off x="0" y="904875"/>
+        <a:ext cx="7315200" cy="2714625"/>
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
@@ -865,222 +641,54 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
-      <selection pane="topLeft" activeCell="A1" sqref="A1:E12"/>
+      <selection pane="topLeft" activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
-  <cols>
-    <col min="2" max="2" width="17.25" customWidth="1"/>
-    <col min="3" max="3" width="14.625" customWidth="1"/>
-    <col min="4" max="4" width="13.25" customWidth="1"/>
-    <col min="5" max="5" width="12.375" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:5" ht="13.8">
-      <c r="A1" s="6" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="6" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="6" t="s">
-        <v>3</v>
+    <row r="1" spans="1:4" ht="14.4">
+      <c r="A1">
+        <v>100</v>
+      </c>
+      <c r="B1">
+        <v>200</v>
+      </c>
+      <c r="C1">
+        <v>300</v>
+      </c>
+      <c r="D1">
+        <v>400</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="13.8">
-      <c r="A2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2">
-        <v>349268354.912</v>
-      </c>
-      <c r="C2" s="3">
-        <v>10.311999999999999</v>
-      </c>
-      <c r="D2" s="3">
-        <v>10.37</v>
-      </c>
-      <c r="E2" s="4">
-        <v>13.308</v>
+    <row r="2" spans="1:4" ht="14.4">
+      <c r="A2">
+        <v>200</v>
+      </c>
+      <c r="B2">
+        <v>300</v>
+      </c>
+      <c r="C2">
+        <v>400</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="13.8">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="2">
-        <v>217780808.919</v>
-      </c>
-      <c r="C3" s="3">
-        <v>9.2720000000000002</v>
-      </c>
-      <c r="D3" s="3">
-        <v>9.4580000000000002</v>
-      </c>
-      <c r="E3" s="4">
-        <v>12.885</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="13.8">
-      <c r="A4" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" s="2">
-        <v>146016501.19800001</v>
-      </c>
-      <c r="C4" s="3">
-        <v>12.696</v>
-      </c>
-      <c r="D4" s="3">
-        <v>12.635999999999999</v>
-      </c>
-      <c r="E4" s="4">
-        <v>14.997</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="13.8">
-      <c r="A5" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5" s="2">
-        <v>45908665.214000002</v>
-      </c>
-      <c r="C5" s="3">
-        <v>11.313000000000001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>11.337999999999999</v>
-      </c>
-      <c r="E5" s="4">
-        <v>13.711</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="13.8">
-      <c r="A6" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6" s="2">
-        <v>16198138.870999999</v>
-      </c>
-      <c r="C6" s="3">
-        <v>11.379</v>
-      </c>
-      <c r="D6" s="3">
-        <v>11.476000000000001</v>
-      </c>
-      <c r="E6" s="4">
-        <v>13.023999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="13.8">
-      <c r="A7" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7" s="2">
-        <v>13983281.343</v>
-      </c>
-      <c r="C7" s="3">
-        <v>11.397</v>
-      </c>
-      <c r="D7" s="3">
-        <v>11.416</v>
-      </c>
-      <c r="E7" s="4">
-        <v>12.87</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="13.8">
-      <c r="A8" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B8" s="2">
-        <v>14121112.388</v>
-      </c>
-      <c r="C8" s="3">
-        <v>10.869</v>
-      </c>
-      <c r="D8" s="3">
-        <v>10.984</v>
-      </c>
-      <c r="E8" s="4">
-        <v>13.103999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="13.8">
-      <c r="A9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" s="2">
-        <v>14338205.864</v>
-      </c>
-      <c r="C9" s="3">
-        <v>8.0920000000000005</v>
-      </c>
-      <c r="D9" s="3">
-        <v>8.2370000000000001</v>
-      </c>
-      <c r="E9" s="4">
-        <v>11.618</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="13.8">
-      <c r="A10" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B10" s="2">
-        <v>11174913.575999999</v>
-      </c>
-      <c r="C10" s="3">
-        <v>11.08</v>
-      </c>
-      <c r="D10" s="3">
-        <v>10.951000000000001</v>
-      </c>
-      <c r="E10" s="4">
-        <v>11.816000000000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="13.8">
-      <c r="A11" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" s="2">
-        <v>6506993.4610000001</v>
-      </c>
-      <c r="C11" s="3">
-        <v>9.1370000000000005</v>
-      </c>
-      <c r="D11" s="3">
-        <v>9.0969999999999995</v>
-      </c>
-      <c r="E11" s="4">
-        <v>9.0489999999999995</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="13.8">
-      <c r="A12" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" s="5">
-        <v>95.27</v>
-      </c>
-      <c r="C12" s="3">
-        <v>12.05</v>
-      </c>
-      <c r="D12" s="3">
-        <v>11.909000000000001</v>
-      </c>
-      <c r="E12" s="4">
-        <v>10.199999999999999</v>
+    <row r="3" spans="1:4" ht="14.4">
+      <c r="A3">
+        <v>300</v>
+      </c>
+      <c r="B3">
+        <v>400</v>
+      </c>
+      <c r="C3">
+        <v>500</v>
+      </c>
+      <c r="D3">
+        <v>400</v>
       </c>
     </row>
   </sheetData>
